--- a/dev/Book1.xlsx
+++ b/dev/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/denisdreano/knitxl/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D5C0B0B-0F7F-1349-8A89-3C8EC8936EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29499C98-30C1-EC42-BDF7-5EE6A6E41CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{CB6B7F8E-1462-C148-8C73-663967A7AFD9}"/>
+    <workbookView xWindow="1960" yWindow="4980" windowWidth="28040" windowHeight="17440" xr2:uid="{CB6B7F8E-1462-C148-8C73-663967A7AFD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,20 +38,37 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>title</t>
+    <r>
+      <t xml:space="preserve">lorem </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>ipsum</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -393,7 +410,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/dev/Book1.xlsx
+++ b/dev/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/denisdreano/knitxl/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29499C98-30C1-EC42-BDF7-5EE6A6E41CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8D8C4D-0A5A-B548-A372-F195880974B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="4980" windowWidth="28040" windowHeight="17440" xr2:uid="{CB6B7F8E-1462-C148-8C73-663967A7AFD9}"/>
+    <workbookView xWindow="3660" yWindow="6320" windowWidth="33040" windowHeight="21440" xr2:uid="{CB6B7F8E-1462-C148-8C73-663967A7AFD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,9 @@
     </r>
     <r>
       <rPr>
-        <strike/>
+        <u/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF0143FD"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
       <t>ipsum</t>
@@ -65,9 +65,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
+      <u/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF0143FD"/>
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
@@ -99,6 +99,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0143FD"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -410,10 +415,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">

--- a/dev/Book1.xlsx
+++ b/dev/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/denisdreano/knitxl/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8D8C4D-0A5A-B548-A372-F195880974B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDEF759-971E-3A4E-B00B-B8D96C2DA508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="6320" windowWidth="33040" windowHeight="21440" xr2:uid="{CB6B7F8E-1462-C148-8C73-663967A7AFD9}"/>
+    <workbookView xWindow="3660" yWindow="6320" windowWidth="38100" windowHeight="21440" xr2:uid="{CB6B7F8E-1462-C148-8C73-663967A7AFD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,10 +43,11 @@
     </r>
     <r>
       <rPr>
-        <u/>
+        <b/>
         <sz val="12"/>
-        <color rgb="FF0143FD"/>
-        <rFont val="Calibri (Body)"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
       </rPr>
       <t>ipsum</t>
     </r>
@@ -65,10 +66,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="12"/>
-      <color rgb="FF0143FD"/>
-      <name val="Calibri (Body)"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Courier New"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -415,7 +417,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -423,7 +425,7 @@
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>

--- a/dev/Book1.xlsx
+++ b/dev/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/denisdreano/knitxl/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDEF759-971E-3A4E-B00B-B8D96C2DA508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E42479-D75E-5447-8B0B-93E16DD3C0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="6320" windowWidth="38100" windowHeight="21440" xr2:uid="{CB6B7F8E-1462-C148-8C73-663967A7AFD9}"/>
+    <workbookView xWindow="8780" yWindow="2000" windowWidth="38100" windowHeight="21440" xr2:uid="{CB6B7F8E-1462-C148-8C73-663967A7AFD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,19 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <r>
-      <t xml:space="preserve">lorem </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>ipsum</t>
-    </r>
+    <t>lorem ipsum</t>
   </si>
 </sst>
 </file>
@@ -66,11 +54,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="12"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="Courier New"/>
-      <family val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,13 +79,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -416,8 +410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD23120-6D72-1845-A1D6-73151A6DF182}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -425,8 +419,8 @@
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
